--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H2">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I2">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J2">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>559.8330175551121</v>
+        <v>591.2800556928908</v>
       </c>
       <c r="R2">
-        <v>559.8330175551121</v>
+        <v>3547.680334157345</v>
       </c>
       <c r="S2">
-        <v>0.1820678820583852</v>
+        <v>0.1542763540925821</v>
       </c>
       <c r="T2">
-        <v>0.1820678820583852</v>
+        <v>0.1258880955338278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H3">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I3">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J3">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>777.7307308425046</v>
+        <v>871.7357480260675</v>
       </c>
       <c r="R3">
-        <v>777.7307308425046</v>
+        <v>7845.621732234608</v>
       </c>
       <c r="S3">
-        <v>0.2529321825186477</v>
+        <v>0.2274526455657831</v>
       </c>
       <c r="T3">
-        <v>0.2529321825186477</v>
+        <v>0.2783989213009014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H4">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I4">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J4">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>378.4304501638631</v>
+        <v>412.2235110669449</v>
       </c>
       <c r="R4">
-        <v>378.4304501638631</v>
+        <v>3710.011599602504</v>
       </c>
       <c r="S4">
-        <v>0.1230724669806619</v>
+        <v>0.1075570531194836</v>
       </c>
       <c r="T4">
-        <v>0.1230724669806619</v>
+        <v>0.1316483591223288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H5">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I5">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J5">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>289.9184986099899</v>
+        <v>303.3684194066338</v>
       </c>
       <c r="R5">
-        <v>289.9184986099899</v>
+        <v>2730.315774659704</v>
       </c>
       <c r="S5">
-        <v>0.09428677008367309</v>
+        <v>0.07915466324674061</v>
       </c>
       <c r="T5">
-        <v>0.09428677008367309</v>
+        <v>0.09688422312703039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H6">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I6">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J6">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>294.0350373982726</v>
+        <v>319.5322267191725</v>
       </c>
       <c r="R6">
-        <v>294.0350373982726</v>
+        <v>2875.790040472552</v>
       </c>
       <c r="S6">
-        <v>0.09562554338766108</v>
+        <v>0.08337211187607288</v>
       </c>
       <c r="T6">
-        <v>0.09562554338766108</v>
+        <v>0.1020463224560025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9121078772097</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H7">
-        <v>11.9121078772097</v>
+        <v>37.372216</v>
       </c>
       <c r="I7">
-        <v>0.7908786299679882</v>
+        <v>0.6879717553992525</v>
       </c>
       <c r="J7">
-        <v>0.7908786299679882</v>
+        <v>0.7643712760457567</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>131.8923293073567</v>
+        <v>138.5828229537453</v>
       </c>
       <c r="R7">
-        <v>131.8923293073567</v>
+        <v>831.496937722472</v>
       </c>
       <c r="S7">
-        <v>0.04289378493895917</v>
+        <v>0.03615892749859024</v>
       </c>
       <c r="T7">
-        <v>0.04289378493895917</v>
+        <v>0.02950535450566594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H8">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I8">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J8">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>148.0290947108016</v>
+        <v>10.46457760054667</v>
       </c>
       <c r="R8">
-        <v>148.0290947108016</v>
+        <v>62.78746560328</v>
       </c>
       <c r="S8">
-        <v>0.04814175461589772</v>
+        <v>0.002730409835047396</v>
       </c>
       <c r="T8">
-        <v>0.04814175461589772</v>
+        <v>0.002227989481490324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H9">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I9">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J9">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>205.6448483838354</v>
+        <v>15.42813138132889</v>
       </c>
       <c r="R9">
-        <v>205.6448483838354</v>
+        <v>138.85318243196</v>
       </c>
       <c r="S9">
-        <v>0.06687944588365904</v>
+        <v>0.004025496610372803</v>
       </c>
       <c r="T9">
-        <v>0.06687944588365904</v>
+        <v>0.004927152688158556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H10">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I10">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J10">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>100.0632602796477</v>
+        <v>7.295603629442223</v>
       </c>
       <c r="R10">
-        <v>100.0632602796477</v>
+        <v>65.66043266497999</v>
       </c>
       <c r="S10">
-        <v>0.0325423926415325</v>
+        <v>0.001903563494182117</v>
       </c>
       <c r="T10">
-        <v>0.0325423926415325</v>
+        <v>0.002329935631611748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H11">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I11">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J11">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>76.65923863614699</v>
+        <v>5.369067222664444</v>
       </c>
       <c r="R11">
-        <v>76.65923863614699</v>
+        <v>48.32160500398</v>
       </c>
       <c r="S11">
-        <v>0.02493097902593361</v>
+        <v>0.001400893042164242</v>
       </c>
       <c r="T11">
-        <v>0.02493097902593361</v>
+        <v>0.001714673886629587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.1497580347468</v>
+        <v>0.2204733333333333</v>
       </c>
       <c r="H12">
-        <v>3.1497580347468</v>
+        <v>0.66142</v>
       </c>
       <c r="I12">
-        <v>0.2091213700320118</v>
+        <v>0.01217584417408306</v>
       </c>
       <c r="J12">
-        <v>0.2091213700320118</v>
+        <v>0.01352797622175213</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>77.74771947072263</v>
+        <v>5.655137104971112</v>
       </c>
       <c r="R12">
-        <v>77.74771947072263</v>
+        <v>50.89623394474</v>
       </c>
       <c r="S12">
-        <v>0.02528497279550048</v>
+        <v>0.001475534183926159</v>
       </c>
       <c r="T12">
-        <v>0.02528497279550048</v>
+        <v>0.001806033621309724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2204733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.66142</v>
+      </c>
+      <c r="I13">
+        <v>0.01217584417408306</v>
+      </c>
+      <c r="J13">
+        <v>0.01352797622175213</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.1245335</v>
+      </c>
+      <c r="N13">
+        <v>22.249067</v>
+      </c>
+      <c r="O13">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P13">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q13">
+        <v>2.452662982523333</v>
+      </c>
+      <c r="R13">
+        <v>14.71597789514</v>
+      </c>
+      <c r="S13">
+        <v>0.0006399470083903387</v>
+      </c>
+      <c r="T13">
+        <v>0.0005221909125521902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.4295585</v>
+      </c>
+      <c r="H14">
+        <v>10.859117</v>
+      </c>
+      <c r="I14">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J14">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>47.464142</v>
+      </c>
+      <c r="N14">
+        <v>94.928284</v>
+      </c>
+      <c r="O14">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P14">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q14">
+        <v>257.709335641307</v>
+      </c>
+      <c r="R14">
+        <v>1030.837342565228</v>
+      </c>
+      <c r="S14">
+        <v>0.06724132893637259</v>
+      </c>
+      <c r="T14">
+        <v>0.03657887341518666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.4295585</v>
+      </c>
+      <c r="H15">
+        <v>10.859117</v>
+      </c>
+      <c r="I15">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J15">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N15">
+        <v>209.931938</v>
+      </c>
+      <c r="O15">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P15">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q15">
+        <v>379.9459127964576</v>
+      </c>
+      <c r="R15">
+        <v>2279.675476778746</v>
+      </c>
+      <c r="S15">
+        <v>0.09913520609100498</v>
+      </c>
+      <c r="T15">
+        <v>0.08089342251153317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.4295585</v>
+      </c>
+      <c r="H16">
+        <v>10.859117</v>
+      </c>
+      <c r="I16">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J16">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N16">
+        <v>99.271919</v>
+      </c>
+      <c r="O16">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P16">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q16">
+        <v>179.6675638725872</v>
+      </c>
+      <c r="R16">
+        <v>1078.005383235523</v>
+      </c>
+      <c r="S16">
+        <v>0.04687872766227003</v>
+      </c>
+      <c r="T16">
+        <v>0.03825261350751545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.4295585</v>
+      </c>
+      <c r="H17">
+        <v>10.859117</v>
+      </c>
+      <c r="I17">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J17">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N17">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P17">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q17">
+        <v>132.2230862805288</v>
+      </c>
+      <c r="R17">
+        <v>793.3385176831729</v>
+      </c>
+      <c r="S17">
+        <v>0.03449954971730695</v>
+      </c>
+      <c r="T17">
+        <v>0.028151317395536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="H13">
-        <v>3.1497580347468</v>
-      </c>
-      <c r="I13">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="J13">
-        <v>0.2091213700320118</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="N13">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="O13">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="P13">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="Q13">
-        <v>34.87450988855787</v>
-      </c>
-      <c r="R13">
-        <v>34.87450988855787</v>
-      </c>
-      <c r="S13">
-        <v>0.01134182506948846</v>
-      </c>
-      <c r="T13">
-        <v>0.01134182506948846</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.4295585</v>
+      </c>
+      <c r="H18">
+        <v>10.859117</v>
+      </c>
+      <c r="I18">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J18">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N18">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O18">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P18">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q18">
+        <v>139.2680796027998</v>
+      </c>
+      <c r="R18">
+        <v>835.6084776167991</v>
+      </c>
+      <c r="S18">
+        <v>0.03633772415580193</v>
+      </c>
+      <c r="T18">
+        <v>0.02965125094453748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.4295585</v>
+      </c>
+      <c r="H19">
+        <v>10.859117</v>
+      </c>
+      <c r="I19">
+        <v>0.2998524004266644</v>
+      </c>
+      <c r="J19">
+        <v>0.2221007477324911</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.1245335</v>
+      </c>
+      <c r="N19">
+        <v>22.249067</v>
+      </c>
+      <c r="O19">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P19">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q19">
+        <v>60.40130542345975</v>
+      </c>
+      <c r="R19">
+        <v>241.605221693839</v>
+      </c>
+      <c r="S19">
+        <v>0.01575986386390796</v>
+      </c>
+      <c r="T19">
+        <v>0.008573269958182398</v>
       </c>
     </row>
   </sheetData>
